--- a/Projects/books.xlsx
+++ b/Projects/books.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Alchemist</t>
+          <t>Let Them: A Blueprint for Better Boundaries</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Paulo Coelho</t>
+          <t>Mel Robbins</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -484,12 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A philosophical novel about following one's dreams.</t>
+          <t>A liberating guide to releasing control over others and embracing personal choice for a fulfilling life.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>adventure, philosophy</t>
+          <t>self-help, boundaries</t>
         </is>
       </c>
     </row>
@@ -499,25 +499,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>Open When: A Practical Guide to Mental Health</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>George Orwell</t>
+          <t>Dr. Julie Smith</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A dystopian novel about totalitarianism.</t>
+          <t>Practical advice for navigating life’s challenges and improving mental resilience.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dystopia, politics</t>
+          <t>self-help, mental health</t>
         </is>
       </c>
     </row>
@@ -527,25 +527,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>To Kill a Mockingbird</t>
+          <t>The Power of Ritual</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Harper Lee</t>
+          <t>Casper ter Kuile</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A novel about racial injustice in the American South.</t>
+          <t>Explores how intentional rituals can create deeper meaning and connection in daily life.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>drama, social issues</t>
+          <t>self-help, mindfulness</t>
         </is>
       </c>
     </row>
@@ -555,25 +555,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Great Gatsby</t>
+          <t>Attached</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F. Scott Fitzgerald</t>
+          <t>Amir Levine &amp; Rachel Heller</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A novel about the American Dream in the 1920s.</t>
+          <t>A science-based look at attachment styles to build healthier relationships.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classics, romance</t>
+          <t>self-help, relationships</t>
         </is>
       </c>
     </row>
@@ -583,25 +583,165 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pride and Prejudice</t>
+          <t>The Upside of Stress</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jane Austen</t>
+          <t>Kelly McGonigal</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Transforms stress into a tool for resilience and growth with a new perspective.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>self-help, stress management</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>A romantic novel about manners and marriage.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>romance, classics</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A Renaissance of Our Own</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rachel Cargle</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A personal journey of empowerment and challenging societal norms.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>self-help, empowerment</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The Courage to Be Disliked</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ichiro Kishimi &amp; Fumitake Koga</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Uses Adlerian psychology to guide readers toward happiness and self-worth.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>self-help, psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atomic Habits</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>James Clear</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A proven method to build good habits and break bad ones.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>self-help, habits</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Subtle Art of Not Giving a F*ck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mark Manson</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A counterintuitive approach to living well by focusing on what truly matters.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>self-help, mindset</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Daring Greatly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brené Brown</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>A research-based exploration of vulnerability and courage in personal growth.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>self-help, vulnerability</t>
         </is>
       </c>
     </row>
